--- a/Telescopes.xlsx
+++ b/Telescopes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob.zavala/Desktop/bobMacBackUp/Optics/Ray tracing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B49151B-BBAA-BA49-A80D-F8B06FE66133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8481AE12-BE39-E244-BC88-E70D43D4A44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="12260" windowWidth="45500" windowHeight="12340" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
   </bookViews>
@@ -38,6 +38,8 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={DC6C2B91-7A5F-0A42-90EC-8C858E3ABAE9}</author>
+    <author>tc={2713D711-D948-104D-97BC-95D6FB52D09A}</author>
     <author>tc={76332FAF-1148-CC4B-826A-6C142B2B9E84}</author>
     <author>tc={5139DE3C-86E2-1D44-8B56-3499D16FF154}</author>
     <author>tc={3C771A72-6F57-BC41-9928-D80E4CFF2B24}</author>
@@ -45,7 +47,23 @@
     <author>tc={C1D08A9C-4AEC-7946-8B79-9CAE047E7E8C}</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{76332FAF-1148-CC4B-826A-6C142B2B9E84}">
+    <comment ref="Q6" authorId="0" shapeId="0" xr:uid="{DC6C2B91-7A5F-0A42-90EC-8C858E3ABAE9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Assume 11 micron pixels and 2048 square sCMOS Andor camera. FoV is along diagonal.</t>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="1" shapeId="0" xr:uid="{2713D711-D948-104D-97BC-95D6FB52D09A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Assume 11 micron pixels and 2048 square sCMOS Andor camera. FoV is along diagonal.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="2" shapeId="0" xr:uid="{76332FAF-1148-CC4B-826A-6C142B2B9E84}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +71,7 @@
     Spherical aberration wavefront error peak to valley error for a Dall-Kirkham telescope with K2 = zero.</t>
       </text>
     </comment>
-    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{5139DE3C-86E2-1D44-8B56-3499D16FF154}">
+    <comment ref="F7" authorId="3" shapeId="0" xr:uid="{5139DE3C-86E2-1D44-8B56-3499D16FF154}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,7 +79,7 @@
     relative secondary magnification from system and primary F numbers</t>
       </text>
     </comment>
-    <comment ref="G7" authorId="2" shapeId="0" xr:uid="{3C771A72-6F57-BC41-9928-D80E4CFF2B24}">
+    <comment ref="G7" authorId="4" shapeId="0" xr:uid="{3C771A72-6F57-BC41-9928-D80E4CFF2B24}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -69,7 +87,7 @@
     relative secondary magnification from system i-prime and i image distances</t>
       </text>
     </comment>
-    <comment ref="L7" authorId="3" shapeId="0" xr:uid="{9B320D16-4345-F640-925D-85BAD0C5104F}">
+    <comment ref="L7" authorId="5" shapeId="0" xr:uid="{9B320D16-4345-F640-925D-85BAD0C5104F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,12 +95,12 @@
     This value of K1 gives a value of K2 equal to zero to within 0.006 or 6 parts in a thousand for sub-aperture corrector A.</t>
       </text>
     </comment>
-    <comment ref="O7" authorId="4" shapeId="0" xr:uid="{C1D08A9C-4AEC-7946-8B79-9CAE047E7E8C}">
+    <comment ref="O7" authorId="6" shapeId="0" xr:uid="{C1D08A9C-4AEC-7946-8B79-9CAE047E7E8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Spherical aberration wavefront error peak to valley error for a Dall-Kirkham telescope with K2 = zero.</t>
+    Spherical aberration wavefront error peak to valley error for a two-mirror Dall-Kirkham telescope with K2 = zero.</t>
       </text>
     </comment>
   </commentList>
@@ -90,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t xml:space="preserve">D-K sub-aperture corr. </t>
   </si>
@@ -673,6 +691,163 @@
   </si>
   <si>
     <t>BK6</t>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rms error (nm)</t>
+    </r>
+  </si>
+  <si>
+    <t>Coma @ 1/3 of FOV</t>
+  </si>
+  <si>
+    <t>Coma @ 2/3 of FOV</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>c1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (rms) (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>c1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (arcmin)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -685,7 +860,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -727,6 +902,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -748,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -784,6 +966,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1126,6 +1314,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q6" dT="2025-12-15T19:11:14.87" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{DC6C2B91-7A5F-0A42-90EC-8C858E3ABAE9}">
+    <text>Assume 11 micron pixels and 2048 square sCMOS Andor camera. FoV is along diagonal.</text>
+  </threadedComment>
+  <threadedComment ref="T6" dT="2025-12-15T19:11:14.87" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{2713D711-D948-104D-97BC-95D6FB52D09A}">
+    <text>Assume 11 micron pixels and 2048 square sCMOS Andor camera. FoV is along diagonal.</text>
+  </threadedComment>
   <threadedComment ref="A7" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{76332FAF-1148-CC4B-826A-6C142B2B9E84}">
     <text>Spherical aberration wavefront error peak to valley error for a Dall-Kirkham telescope with K2 = zero.</text>
   </threadedComment>
@@ -1139,7 +1333,7 @@
     <text>This value of K1 gives a value of K2 equal to zero to within 0.006 or 6 parts in a thousand for sub-aperture corrector A.</text>
   </threadedComment>
   <threadedComment ref="O7" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{C1D08A9C-4AEC-7946-8B79-9CAE047E7E8C}">
-    <text>Spherical aberration wavefront error peak to valley error for a Dall-Kirkham telescope with K2 = zero.</text>
+    <text>Spherical aberration wavefront error peak to valley error for a two-mirror Dall-Kirkham telescope with K2 = zero.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1148,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522E849A-2A88-104D-9108-372B7B98600A}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,6 +1363,7 @@
     <col min="13" max="13" width="16.5" customWidth="1"/>
     <col min="14" max="14" width="14.83203125" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.83203125" style="1"/>
     <col min="24" max="25" width="10.83203125" style="1"/>
   </cols>
@@ -1558,7 +1753,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="7" spans="1:25" s="11" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>27</v>
@@ -1604,6 +1806,21 @@
       </c>
       <c r="O7" s="10" t="s">
         <v>41</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -1666,6 +1883,26 @@
         <f>ABS(E8*M8)*1000000</f>
         <v>745.83911040332998</v>
       </c>
+      <c r="P8" s="6">
+        <f>O8/6</f>
+        <v>124.30651840055499</v>
+      </c>
+      <c r="Q8">
+        <f>((1+((E2+1)*(H8-I8)*H8^2))/2*(1+I8))/(4*(C2*B2)^2)</f>
+        <v>7.5689735650131182E-8</v>
+      </c>
+      <c r="R8" s="14">
+        <f>Q8*(206265/(B2*C2))*5.3097*(1/3600)*0.017433*B2^3/12</f>
+        <v>3.7633396775841552E-4</v>
+      </c>
+      <c r="S8" s="6">
+        <f>R8*1000000/6</f>
+        <v>62.722327959735914</v>
+      </c>
+      <c r="T8" s="6">
+        <f>206265/(C2*B2)*482.7*0.011/60</f>
+        <v>7.6055921562499984</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1727,6 +1964,26 @@
         <f>ABS(E9*M9)*1000000</f>
         <v>434.7607599332635</v>
       </c>
+      <c r="P9" s="6">
+        <f t="shared" ref="P9:P11" si="0">O9/6</f>
+        <v>72.460126655543917</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9:Q11" si="1">((1+((E3+1)*(H9-I9)*H9^2))/2*(1+I9))/(4*(C3*B3)^2)</f>
+        <v>1.0787167801592107E-7</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" ref="R9:R11" si="2">Q9*(206265/(B3*C3))*5.3097*(1/3600)*0.017433*B3^3/12</f>
+        <v>5.6457320203738418E-4</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" ref="S9:S11" si="3">R9*1000000/6</f>
+        <v>94.095533672897361</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" ref="T9:T11" si="4">206265/(C3*B3)*482.7*0.011/60</f>
+        <v>8.0058864802631557</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1788,6 +2045,26 @@
         <f>ABS(E10*M10)*1000000</f>
         <v>190.4782393861646</v>
       </c>
+      <c r="P10" s="6">
+        <f t="shared" si="0"/>
+        <v>31.746373231027434</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>5.8793226278467079E-8</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="2"/>
+        <v>2.9232349581677418E-4</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="3"/>
+        <v>48.720582636129031</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="4"/>
+        <v>7.6055921562499984</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1848,6 +2125,26 @@
       <c r="O11" s="12">
         <f>ABS(E11*M11)*1000000</f>
         <v>718.923197881384</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="0"/>
+        <v>119.82053298023067</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1.7157070002021576E-7</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="2"/>
+        <v>8.8629605442545965E-4</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="3"/>
+        <v>147.71600907090993</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="4"/>
+        <v>7.9019139285714282</v>
       </c>
     </row>
   </sheetData>

--- a/Telescopes.xlsx
+++ b/Telescopes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob.zavala/Desktop/bobMacBackUp/Optics/Ray tracing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8481AE12-BE39-E244-BC88-E70D43D4A44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859E721B-D479-664E-8E7B-7BB090816FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="12260" windowWidth="45500" windowHeight="12340" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
+    <workbookView xWindow="10800" yWindow="6640" windowWidth="47780" windowHeight="16760" activeTab="1" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
   </bookViews>
   <sheets>
     <sheet name="Dall-Kirkham" sheetId="1" r:id="rId1"/>
+    <sheet name="NOFS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,6 +46,8 @@
     <author>tc={3C771A72-6F57-BC41-9928-D80E4CFF2B24}</author>
     <author>tc={9B320D16-4345-F640-925D-85BAD0C5104F}</author>
     <author>tc={C1D08A9C-4AEC-7946-8B79-9CAE047E7E8C}</author>
+    <author>tc={C96AA361-83BF-3948-B9C4-90D511578E63}</author>
+    <author>tc={2D965984-A915-2F42-8488-E5104428F7D7}</author>
   </authors>
   <commentList>
     <comment ref="Q6" authorId="0" shapeId="0" xr:uid="{DC6C2B91-7A5F-0A42-90EC-8C858E3ABAE9}">
@@ -103,12 +106,82 @@
     Spherical aberration wavefront error peak to valley error for a two-mirror Dall-Kirkham telescope with K2 = zero.</t>
       </text>
     </comment>
+    <comment ref="R7" authorId="7" shapeId="0" xr:uid="{C96AA361-83BF-3948-B9C4-90D511578E63}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Physical position is 5.3097 mm for 1/3 of the way along the diagonal of the 2048 square Andor Marana camera. </t>
+      </text>
+    </comment>
+    <comment ref="U7" authorId="8" shapeId="0" xr:uid="{2D965984-A915-2F42-8488-E5104428F7D7}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Physical position is 10.6205 mm for 2/3 of the way along the diagonal of the 2048 square Andor Marana camera. </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F0B50C6E-B471-C840-AFAF-86D29A3A3206}</author>
+    <author>tc={CCA9F9D2-3867-8D4C-B412-C3214225D83E}</author>
+    <author>tc={B3EE743C-9DC9-9C46-A724-E50D33845875}</author>
+    <author>tc={1D03FF7D-1DF4-0243-8510-3D2521588EE3}</author>
+    <author>tc={4F8DA041-25F8-394B-BB56-14F95FD17C3C}</author>
+  </authors>
+  <commentList>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{F0B50C6E-B471-C840-AFAF-86D29A3A3206}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Spherical aberration wavefront error peak to valley error for a Dall-Kirkham telescope with K2 = zero.</t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{CCA9F9D2-3867-8D4C-B412-C3214225D83E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    relative secondary magnification from system and primary F numbers</t>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="2" shapeId="0" xr:uid="{B3EE743C-9DC9-9C46-A724-E50D33845875}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    relative secondary magnification from system i-prime and i image distances</t>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="3" shapeId="0" xr:uid="{1D03FF7D-1DF4-0243-8510-3D2521588EE3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value of K1 gives a value of K2 equal to zero to within 0.006 or 6 parts in a thousand for sub-aperture corrector A.</t>
+      </text>
+    </comment>
+    <comment ref="O7" authorId="4" shapeId="0" xr:uid="{4F8DA041-25F8-394B-BB56-14F95FD17C3C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Spherical aberration wavefront error peak to valley error for a two-mirror Dall-Kirkham telescope with K2 = zero.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
   <si>
     <t xml:space="preserve">D-K sub-aperture corr. </t>
   </si>
@@ -539,31 +612,6 @@
   </si>
   <si>
     <t>BK7</t>
-  </si>
-  <si>
-    <r>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P-V error check</t>
-    </r>
   </si>
   <si>
     <r>
@@ -848,6 +896,105 @@
       </rPr>
       <t xml:space="preserve"> (arcmin)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (arcmin)</t>
+    </r>
+  </si>
+  <si>
+    <t>Big 3</t>
+  </si>
+  <si>
+    <t>61-inch</t>
+  </si>
+  <si>
+    <t>40-inch</t>
+  </si>
+  <si>
+    <t>1.3 m</t>
+  </si>
+  <si>
+    <t>Wx P-V error check</t>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>c2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>c2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (rms) (nm)</t>
+    </r>
+  </si>
+  <si>
+    <t>BK7(?)</t>
+  </si>
+  <si>
+    <t>Aplanat W P-V error check</t>
   </si>
 </sst>
 </file>
@@ -1335,6 +1482,32 @@
   <threadedComment ref="O7" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{C1D08A9C-4AEC-7946-8B79-9CAE047E7E8C}">
     <text>Spherical aberration wavefront error peak to valley error for a two-mirror Dall-Kirkham telescope with K2 = zero.</text>
   </threadedComment>
+  <threadedComment ref="R7" dT="2025-12-17T18:57:00.34" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{C96AA361-83BF-3948-B9C4-90D511578E63}">
+    <text xml:space="preserve">Physical position is 5.3097 mm for 1/3 of the way along the diagonal of the 2048 square Andor Marana camera. </text>
+  </threadedComment>
+  <threadedComment ref="U7" dT="2025-12-17T18:57:30.91" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{2D965984-A915-2F42-8488-E5104428F7D7}">
+    <text xml:space="preserve">Physical position is 10.6205 mm for 2/3 of the way along the diagonal of the 2048 square Andor Marana camera. </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A7" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{F0B50C6E-B471-C840-AFAF-86D29A3A3206}">
+    <text>Spherical aberration wavefront error peak to valley error for a Dall-Kirkham telescope with K2 = zero.</text>
+  </threadedComment>
+  <threadedComment ref="F7" dT="2025-12-05T18:56:25.76" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{CCA9F9D2-3867-8D4C-B412-C3214225D83E}">
+    <text>relative secondary magnification from system and primary F numbers</text>
+  </threadedComment>
+  <threadedComment ref="G7" dT="2025-12-05T18:56:25.76" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{B3EE743C-9DC9-9C46-A724-E50D33845875}">
+    <text>relative secondary magnification from system i-prime and i image distances</text>
+  </threadedComment>
+  <threadedComment ref="L7" dT="2025-12-05T22:28:03.70" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{1D03FF7D-1DF4-0243-8510-3D2521588EE3}">
+    <text>This value of K1 gives a value of K2 equal to zero to within 0.006 or 6 parts in a thousand for sub-aperture corrector A.</text>
+  </threadedComment>
+  <threadedComment ref="O7" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{4F8DA041-25F8-394B-BB56-14F95FD17C3C}">
+    <text>Spherical aberration wavefront error peak to valley error for a two-mirror Dall-Kirkham telescope with K2 = zero.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1342,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522E849A-2A88-104D-9108-372B7B98600A}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9:T11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1729,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S5" s="1">
         <v>-131</v>
@@ -1755,71 +1928,80 @@
     </row>
     <row r="6" spans="1:25" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="11" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="P7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="T7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="11" t="s">
+      <c r="U7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1892,7 +2074,7 @@
         <v>7.5689735650131182E-8</v>
       </c>
       <c r="R8" s="14">
-        <f>Q8*(206265/(B2*C2))*5.3097*(1/3600)*0.017433*B2^3/12</f>
+        <f>$Q8*(206265/($B2*$C2))*5.3097*(1/3600)*0.017433*$B2^3/12</f>
         <v>3.7633396775841552E-4</v>
       </c>
       <c r="S8" s="6">
@@ -1902,6 +2084,18 @@
       <c r="T8" s="6">
         <f>206265/(C2*B2)*482.7*0.011/60</f>
         <v>7.6055921562499984</v>
+      </c>
+      <c r="U8" s="14">
+        <f>$Q8*(206265/($B2*$C2))*10.6205*(1/3600)*0.017433*$B2^3/12</f>
+        <v>7.5274589987725331E-4</v>
+      </c>
+      <c r="V8" s="6">
+        <f>U8*1000000/6</f>
+        <v>125.45764997954223</v>
+      </c>
+      <c r="W8" s="6">
+        <f>206265/(B2*C2)*965.5*0.011/60</f>
+        <v>15.212759947916663</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -1984,6 +2178,18 @@
         <f t="shared" ref="T9:T11" si="4">206265/(C3*B3)*482.7*0.011/60</f>
         <v>8.0058864802631557</v>
       </c>
+      <c r="U9" s="14">
+        <f t="shared" ref="U9:U11" si="5">$Q9*(206265/($B3*$C3))*10.6205*(1/3600)*0.017433*$B3^3/12</f>
+        <v>1.1292633655833734E-3</v>
+      </c>
+      <c r="V9" s="6">
+        <f t="shared" ref="V9:V11" si="6">U9*1000000/6</f>
+        <v>188.21056093056222</v>
+      </c>
+      <c r="W9" s="6">
+        <f>206265/(B3*C3)*965.5*0.011/60</f>
+        <v>16.013431524122804</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2065,6 +2271,18 @@
         <f t="shared" si="4"/>
         <v>7.6055921562499984</v>
       </c>
+      <c r="U10" s="14">
+        <f t="shared" si="5"/>
+        <v>5.8470755171140536E-4</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="6"/>
+        <v>97.451258618567564</v>
+      </c>
+      <c r="W10" s="6">
+        <f>206265/(B4*C4)*965.5*0.011/60</f>
+        <v>15.212759947916663</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2145,6 +2363,18 @@
       <c r="T11" s="6">
         <f t="shared" si="4"/>
         <v>7.9019139285714282</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="5"/>
+        <v>1.7727757210436736E-3</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" si="6"/>
+        <v>295.4626201739456</v>
+      </c>
+      <c r="W11" s="6">
+        <f>206265/(B5*C5)*965.5*0.011/60</f>
+        <v>15.805464880952378</v>
       </c>
     </row>
   </sheetData>
@@ -2152,4 +2382,294 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BF685D-8724-5246-AEF2-3915C8A371E5}">
+  <dimension ref="A1:Y9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1550</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-30400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-14600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1287.78</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-6060.69</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1735.13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-6060.69</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1802.85</v>
+      </c>
+      <c r="K4" s="1">
+        <v>306.32</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="1">
+        <v>25.98</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>29.997</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <f>D4/2</f>
+        <v>-3030.3449999999998</v>
+      </c>
+      <c r="C9">
+        <f>G4/2</f>
+        <v>-3030.3449999999998</v>
+      </c>
+      <c r="D9">
+        <f>B9/B4</f>
+        <v>-2.3531542654801285</v>
+      </c>
+      <c r="E9" s="7">
+        <f>B4/(2048*(D9^3))</f>
+        <v>-4.8257022975322E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <f>ABS(C4/D9)</f>
+        <v>1.6998460571321088</v>
+      </c>
+      <c r="G9" s="8">
+        <f>ABS((I4+K4+N4+Q4+T4+W4)/(B9-F4))</f>
+        <v>1.6716506525943573</v>
+      </c>
+      <c r="H9" s="9">
+        <f>AVERAGE(F9,G9)</f>
+        <v>1.685748354863233</v>
+      </c>
+      <c r="I9" s="9">
+        <f>-1*(I4+K4+N4+Q4+T4+W4+F4)/B9</f>
+        <v>0.14190364463452176</v>
+      </c>
+      <c r="J9" s="9">
+        <f>ABS(G4/D4)</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <f>J9*(H9-1)/H9</f>
+        <v>0.40679165006147594</v>
+      </c>
+      <c r="L9" s="9">
+        <f>-1-2*(1+I9)/(H9^2*(H9-I9))</f>
+        <v>-1.5205594701159819</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Telescopes.xlsx
+++ b/Telescopes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob.zavala/Desktop/bobMacBackUp/Optics/Ray tracing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859E721B-D479-664E-8E7B-7BB090816FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1852EF12-BC4C-7C4F-9BA9-AE844B0AB153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="6640" windowWidth="47780" windowHeight="16760" activeTab="1" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
+    <workbookView xWindow="10800" yWindow="6640" windowWidth="47780" windowHeight="16760" activeTab="2" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
   </bookViews>
   <sheets>
     <sheet name="Dall-Kirkham" sheetId="1" r:id="rId1"/>
     <sheet name="NOFS" sheetId="2" r:id="rId2"/>
+    <sheet name="Filipovic" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,7 +134,7 @@
     <author>tc={CCA9F9D2-3867-8D4C-B412-C3214225D83E}</author>
     <author>tc={B3EE743C-9DC9-9C46-A724-E50D33845875}</author>
     <author>tc={1D03FF7D-1DF4-0243-8510-3D2521588EE3}</author>
-    <author>tc={4F8DA041-25F8-394B-BB56-14F95FD17C3C}</author>
+    <author>tc={77700BD1-EE46-434E-A663-17F459E3C153}</author>
   </authors>
   <commentList>
     <comment ref="A7" authorId="0" shapeId="0" xr:uid="{F0B50C6E-B471-C840-AFAF-86D29A3A3206}">
@@ -168,12 +169,93 @@
     This value of K1 gives a value of K2 equal to zero to within 0.006 or 6 parts in a thousand for sub-aperture corrector A.</t>
       </text>
     </comment>
-    <comment ref="O7" authorId="4" shapeId="0" xr:uid="{4F8DA041-25F8-394B-BB56-14F95FD17C3C}">
+    <comment ref="O7" authorId="4" shapeId="0" xr:uid="{77700BD1-EE46-434E-A663-17F459E3C153}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={53761471-AC38-3C4C-B4C8-C3F975D0FC32}</author>
+    <author>tc={10D2624B-1252-C446-A5EC-29303EB575D0}</author>
+    <author>tc={A0A9F1F5-47EF-184F-976B-CA8CB89F182C}</author>
+    <author>tc={AF069C37-F58D-684D-8E91-715472D1A0AE}</author>
+    <author>tc={767354F5-E9AD-0F4F-9D04-3FEB0C137ED5}</author>
+    <author>tc={6F7B81E5-8AE8-C64B-B1AA-14BF9FC662C3}</author>
+    <author>tc={309DCF61-2995-7244-A9C7-2DF5015E4B07}</author>
+    <author>tc={AB926917-A76F-2945-BA48-156C98E1CFC2}</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{53761471-AC38-3C4C-B4C8-C3F975D0FC32}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Spherical aberration wavefront error peak to valley error for a two-mirror Dall-Kirkham telescope with K2 = zero.</t>
+    Spherical aberration wavefront error peak to valley error for a Dall-Kirkham telescope with K2 = zero.</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="1" shapeId="0" xr:uid="{10D2624B-1252-C446-A5EC-29303EB575D0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    relative secondary magnification from system and primary F numbers</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="2" shapeId="0" xr:uid="{A0A9F1F5-47EF-184F-976B-CA8CB89F182C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    relative secondary magnification from system i-prime and i image distances</t>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="3" shapeId="0" xr:uid="{AF069C37-F58D-684D-8E91-715472D1A0AE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    3.75 mm from axis</t>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="4" shapeId="0" xr:uid="{767354F5-E9AD-0F4F-9D04-3FEB0C137ED5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5mm from axis</t>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="5" shapeId="0" xr:uid="{6F7B81E5-8AE8-C64B-B1AA-14BF9FC662C3}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Wavefront Peak-to-valley Seidel astigmatism error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </t>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="6" shapeId="0" xr:uid="{309DCF61-2995-7244-A9C7-2DF5015E4B07}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </t>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="7" shapeId="0" xr:uid="{AB926917-A76F-2945-BA48-156C98E1CFC2}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </t>
       </text>
     </comment>
   </commentList>
@@ -181,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="72">
   <si>
     <t xml:space="preserve">D-K sub-aperture corr. </t>
   </si>
@@ -995,6 +1077,429 @@
   </si>
   <si>
     <t>Aplanat W P-V error check</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K1 = -1</t>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P-V error with K1 = -1 (nm)</t>
+    </r>
+  </si>
+  <si>
+    <t>As built K1</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>R-C w/out corr.</t>
+  </si>
+  <si>
+    <t>R-C w/ corr.</t>
+  </si>
+  <si>
+    <r>
+      <t>Field angle α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (arcmin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Field angle α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (arcmin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">AS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>P-V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>at Field angle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">AS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>P-V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>at Field angle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>P-V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>at Field angle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>P-V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>at Field angle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1505,8 +2010,37 @@
   <threadedComment ref="L7" dT="2025-12-05T22:28:03.70" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{1D03FF7D-1DF4-0243-8510-3D2521588EE3}">
     <text>This value of K1 gives a value of K2 equal to zero to within 0.006 or 6 parts in a thousand for sub-aperture corrector A.</text>
   </threadedComment>
-  <threadedComment ref="O7" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{4F8DA041-25F8-394B-BB56-14F95FD17C3C}">
-    <text>Spherical aberration wavefront error peak to valley error for a two-mirror Dall-Kirkham telescope with K2 = zero.</text>
+  <threadedComment ref="O7" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{77700BD1-EE46-434E-A663-17F459E3C153}">
+    <text/>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A6" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{53761471-AC38-3C4C-B4C8-C3F975D0FC32}">
+    <text>Spherical aberration wavefront error peak to valley error for a Dall-Kirkham telescope with K2 = zero.</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2025-12-05T18:56:25.76" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{10D2624B-1252-C446-A5EC-29303EB575D0}">
+    <text>relative secondary magnification from system and primary F numbers</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2025-12-05T18:56:25.76" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{A0A9F1F5-47EF-184F-976B-CA8CB89F182C}">
+    <text>relative secondary magnification from system i-prime and i image distances</text>
+  </threadedComment>
+  <threadedComment ref="L6" dT="2025-12-29T23:54:44.48" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{AF069C37-F58D-684D-8E91-715472D1A0AE}">
+    <text>3.75 mm from axis</text>
+  </threadedComment>
+  <threadedComment ref="M6" dT="2025-12-29T23:54:07.92" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{767354F5-E9AD-0F4F-9D04-3FEB0C137ED5}">
+    <text>5mm from axis</text>
+  </threadedComment>
+  <threadedComment ref="N6" dT="2025-12-30T00:18:39.75" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{6F7B81E5-8AE8-C64B-B1AA-14BF9FC662C3}">
+    <text xml:space="preserve">Wavefront Peak-to-valley Seidel astigmatism error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </text>
+  </threadedComment>
+  <threadedComment ref="P6" dT="2025-12-30T00:18:39.75" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{309DCF61-2995-7244-A9C7-2DF5015E4B07}">
+    <text xml:space="preserve">Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </text>
+  </threadedComment>
+  <threadedComment ref="Q6" dT="2025-12-30T00:18:39.75" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{AB926917-A76F-2945-BA48-156C98E1CFC2}">
+    <text xml:space="preserve">Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1516,7 +2050,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2388,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BF685D-8724-5246-AEF2-3915C8A371E5}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2584,16 +3118,16 @@
         <v>35</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>42</v>
@@ -2608,6 +3142,9 @@
         <v>46</v>
       </c>
       <c r="T7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="X7" s="11" t="s">
@@ -2618,6 +3155,9 @@
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="M8" s="6">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2666,6 +3206,310 @@
       <c r="L9" s="9">
         <f>-1-2*(1+I9)/(H9^2*(H9-I9))</f>
         <v>-1.5205594701159819</v>
+      </c>
+      <c r="M9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <f>-1*(((H9+1)/(H9-1))^2)-2*H9*(H9+1)/((H9-I9)*(H9-1)^3)</f>
+        <v>-33.527359469746898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB632B28-9AAC-8446-BDC4-4F6BF2F6CAFD}">
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1">
+        <v>250</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1510</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1.1539999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-484</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-862</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-6.5119999999999996</v>
+      </c>
+      <c r="I2" s="1">
+        <v>728</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1">
+        <v>250</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1510</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1.1539999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-484</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-862</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-6.5119999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:25" ht="55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1">
+        <f>D2/2</f>
+        <v>-755</v>
+      </c>
+      <c r="C7" s="1">
+        <f>G2/2</f>
+        <v>-431</v>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/B2</f>
+        <v>-3.02</v>
+      </c>
+      <c r="E7" s="7">
+        <f>B2/(2048*(D7^3))</f>
+        <v>-4.431892600998388E-3</v>
+      </c>
+      <c r="F7" s="8">
+        <f>ABS(C2/D7)</f>
+        <v>2.682119205298013</v>
+      </c>
+      <c r="G7" s="8">
+        <f>ABS((I2+K2+N2+Q2+T2+W2)/(B7-F2))</f>
+        <v>2.6863468634686347</v>
+      </c>
+      <c r="H7" s="9">
+        <f>AVERAGE(F7,G7)</f>
+        <v>2.6842330343833236</v>
+      </c>
+      <c r="I7" s="9">
+        <f>-1*(I2+K2+N2+Q2+T2+W2+F2)/B7</f>
+        <v>0.32317880794701986</v>
+      </c>
+      <c r="J7" s="9">
+        <f>ABS(G2/D2)</f>
+        <v>0.57086092715231784</v>
+      </c>
+      <c r="K7" s="9">
+        <f>J7*(H7-1)/H7</f>
+        <v>0.35818903173938194</v>
+      </c>
+      <c r="L7" s="8">
+        <v>6.3550000000000004</v>
+      </c>
+      <c r="M7" s="1">
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="N7" s="9">
+        <f>(-1*(H7^2+I7)*((L7*0.0175/60)*B2)^2)/(8*(1+I7)*H7*C2*B2)*1000000</f>
+        <v>-28.09487170815185</v>
+      </c>
+      <c r="O7" s="9">
+        <f>(-1*(H7^2+I7)*((M7*0.0175/60)*B2)^2)/(8*(1+I7)*H7*C2*B2)*1000000</f>
+        <v>-49.83646769847531</v>
+      </c>
+      <c r="P7" s="9">
+        <f>(L7*0.0175/60)*B2/(48*C2^2)*1000000</f>
+        <v>147.14011350742607</v>
+      </c>
+      <c r="Q7" s="9">
+        <f>(M7*0.0175/60)*B2/(48*C2^2)*1000000</f>
+        <v>195.97071923317927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Telescopes.xlsx
+++ b/Telescopes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob.zavala/Desktop/bobMacBackUp/Optics/Ray tracing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1852EF12-BC4C-7C4F-9BA9-AE844B0AB153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83D9A41-588F-EF4D-A914-C803EE9AF2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10800" yWindow="6640" windowWidth="47780" windowHeight="16760" activeTab="2" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
   </bookViews>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
   <si>
     <t xml:space="preserve">D-K sub-aperture corr. </t>
   </si>
@@ -1499,6 +1499,30 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">SA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>(nm)</t>
     </r>
   </si>
 </sst>
@@ -3226,7 +3250,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3234,6 +3258,7 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -3439,6 +3464,9 @@
       <c r="Q6" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="R6" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -3505,6 +3533,10 @@
       <c r="Q7" s="9">
         <f>(M7*0.0175/60)*B2/(48*C2^2)*1000000</f>
         <v>195.97071923317927</v>
+      </c>
+      <c r="R7" s="9">
+        <f>((E2+1-1*(H2+(1-2*J7/K7)^2)*K7^4/J7^3)*B2)/(2048*C2^3)*1000000</f>
+        <v>-0.27520575172112816</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">

--- a/Telescopes.xlsx
+++ b/Telescopes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob.zavala/Desktop/bobMacBackUp/Optics/Ray tracing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83D9A41-588F-EF4D-A914-C803EE9AF2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D209B46D-FCDA-0D41-AC28-4AA0850C78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="6640" windowWidth="47780" windowHeight="16760" activeTab="2" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
+    <workbookView xWindow="10800" yWindow="6640" windowWidth="47780" windowHeight="16760" activeTab="1" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
   </bookViews>
   <sheets>
     <sheet name="Dall-Kirkham" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,13 @@
     <author>tc={CCA9F9D2-3867-8D4C-B412-C3214225D83E}</author>
     <author>tc={B3EE743C-9DC9-9C46-A724-E50D33845875}</author>
     <author>tc={1D03FF7D-1DF4-0243-8510-3D2521588EE3}</author>
-    <author>tc={77700BD1-EE46-434E-A663-17F459E3C153}</author>
+    <author>tc={8B232EF6-38AE-8940-9673-E83B3C93B41C}</author>
+    <author>tc={14660CF1-6C30-3C48-AECC-3895F8B1520C}</author>
+    <author>tc={EA2FF422-D5E7-A544-BFFA-D745CCAE8021}</author>
+    <author>tc={0D1CF9BB-F572-C64C-A7BB-3246AECD9042}</author>
+    <author>tc={85E3B126-43D6-094E-B8BE-A27C4989E2BE}</author>
+    <author>tc={9D1DBCD1-66F9-FC43-A270-B8AA33D3D9BA}</author>
+    <author>tc={599CDE9C-DE6D-D24E-B887-9F3C4EE18425}</author>
   </authors>
   <commentList>
     <comment ref="A7" authorId="0" shapeId="0" xr:uid="{F0B50C6E-B471-C840-AFAF-86D29A3A3206}">
@@ -166,15 +172,63 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This value of K1 gives a value of K2 equal to zero to within 0.006 or 6 parts in a thousand for sub-aperture corrector A.</t>
+    Estimated value of K1 using m and eta.</t>
       </text>
     </comment>
-    <comment ref="O7" authorId="4" shapeId="0" xr:uid="{77700BD1-EE46-434E-A663-17F459E3C153}">
+    <comment ref="N7" authorId="4" shapeId="0" xr:uid="{8B232EF6-38AE-8940-9673-E83B3C93B41C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated value of K2 using m for no spherical aberration </t>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="5" shapeId="0" xr:uid="{14660CF1-6C30-3C48-AECC-3895F8B1520C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Wavefront Peak-to-valley error at diffraction focus for astigmatism (telescope-optics.net Eqn.  84.2 Sec. 8.2.2) using as built K1 and K2 from blueprints. Angles are in multiples of 1/3 of the way along the radius of an Andor Marana 2048 sCMOS 11-micron pixel camera. </t>
+      </text>
+    </comment>
+    <comment ref="S7" authorId="6" shapeId="0" xr:uid="{EA2FF422-D5E7-A544-BFFA-D745CCAE8021}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     </t>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="7" shapeId="0" xr:uid="{0D1CF9BB-F572-C64C-A7BB-3246AECD9042}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    </t>
+      </text>
+    </comment>
+    <comment ref="U7" authorId="8" shapeId="0" xr:uid="{85E3B126-43D6-094E-B8BE-A27C4989E2BE}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </t>
+      </text>
+    </comment>
+    <comment ref="V7" authorId="9" shapeId="0" xr:uid="{9D1DBCD1-66F9-FC43-A270-B8AA33D3D9BA}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </t>
+      </text>
+    </comment>
+    <comment ref="W7" authorId="10" shapeId="0" xr:uid="{599CDE9C-DE6D-D24E-B887-9F3C4EE18425}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </t>
       </text>
     </comment>
   </commentList>
@@ -192,6 +246,7 @@
     <author>tc={6F7B81E5-8AE8-C64B-B1AA-14BF9FC662C3}</author>
     <author>tc={309DCF61-2995-7244-A9C7-2DF5015E4B07}</author>
     <author>tc={AB926917-A76F-2945-BA48-156C98E1CFC2}</author>
+    <author>tc={C0E4DB1A-D192-0445-96D7-2F595BF55620}</author>
   </authors>
   <commentList>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{53761471-AC38-3C4C-B4C8-C3F975D0FC32}">
@@ -223,7 +278,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    3.75 mm from axis</t>
+    3.75 mm from axis or one=third of the way along as diagonal of a 2048 array of 11-micron pixels.</t>
       </text>
     </comment>
     <comment ref="M6" authorId="4" shapeId="0" xr:uid="{767354F5-E9AD-0F4F-9D04-3FEB0C137ED5}">
@@ -231,7 +286,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    5mm from axis</t>
+    5mm from axis which corresponds to this odd choice of angular distance.</t>
       </text>
     </comment>
     <comment ref="N6" authorId="5" shapeId="0" xr:uid="{6F7B81E5-8AE8-C64B-B1AA-14BF9FC662C3}">
@@ -239,7 +294,7 @@
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Wavefront Peak-to-valley Seidel astigmatism error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </t>
+    Wavefront Peak-to-valley Seidel astigmatism error at diffraction focus (Eqn. 84.2, Sec. 8.2.2, telescope-optics.net) </t>
       </text>
     </comment>
     <comment ref="P6" authorId="6" shapeId="0" xr:uid="{309DCF61-2995-7244-A9C7-2DF5015E4B07}">
@@ -255,7 +310,15 @@
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </t>
+    Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, Sec. 8.2.2, telescope-optics.net) </t>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="8" shapeId="0" xr:uid="{C0E4DB1A-D192-0445-96D7-2F595BF55620}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Peak-to-Valley Spherical aberration wavefront error at diffraction best focus (Eqn. 81 Sec. 8.2.1 telescope-optics.net)</t>
       </text>
     </comment>
   </commentList>
@@ -263,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
   <si>
     <t xml:space="preserve">D-K sub-aperture corr. </t>
   </si>
@@ -1079,13 +1142,78 @@
     <t>Aplanat W P-V error check</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>K1 = -1</t>
   </si>
   <si>
-    <r>
+    <t>What</t>
+  </si>
+  <si>
+    <t>R-C w/out corr.</t>
+  </si>
+  <si>
+    <t>R-C w/ corr.</t>
+  </si>
+  <si>
+    <r>
+      <t>Field angle α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (arcmin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Field angle α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (arcmin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>W</t>
     </r>
     <r>
@@ -1096,6 +1224,383 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
+      <t xml:space="preserve">AS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>P-V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>at Field angle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">AS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>P-V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>at Field angle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>P-V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>at Field angle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>P-V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>at Field angle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">SA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>(nm)</t>
+    </r>
+  </si>
+  <si>
+    <t>Estimated value of K1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estimated value of K2</t>
+  </si>
+  <si>
+    <r>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (arcmin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
       <t>AS</t>
     </r>
     <r>
@@ -1106,24 +1611,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> P-V error with K1 = -1 (nm)</t>
-    </r>
-  </si>
-  <si>
-    <t>As built K1</t>
-  </si>
-  <si>
-    <t>What</t>
-  </si>
-  <si>
-    <t>R-C w/out corr.</t>
-  </si>
-  <si>
-    <t>R-C w/ corr.</t>
-  </si>
-  <si>
-    <r>
-      <t>Field angle α</t>
+      <t xml:space="preserve"> P-V error α</t>
     </r>
     <r>
       <rPr>
@@ -1141,15 +1629,119 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <t>1.3 m w/out corr.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>P-V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>at Field angle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (arcmin)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Field angle α</t>
+      <t xml:space="preserve"> α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P-V error α</t>
     </r>
     <r>
       <rPr>
@@ -1167,10 +1759,292 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P-V error α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rms α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rms α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rms α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> rms</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>at</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (arcmin)</t>
+      <t xml:space="preserve"> α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm)</t>
     </r>
   </si>
   <si>
@@ -1192,16 +2066,16 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve">AS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>P-V</t>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>rms</t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +2094,7 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>at Field angle</t>
+      <t>at</t>
     </r>
     <r>
       <rPr>
@@ -1241,7 +2115,7 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>1</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1274,16 +2148,16 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve">AS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>P-V</t>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> rms</t>
     </r>
     <r>
       <rPr>
@@ -1302,7 +2176,7 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>at Field angle</t>
+      <t>at</t>
     </r>
     <r>
       <rPr>
@@ -1335,194 +2209,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (nm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve">C </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>P-V</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>at Field angle</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> α</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (nm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve">C </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>P-V</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>at Field angle</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> α</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (nm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve">SA </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>(nm)</t>
     </r>
   </si>
 </sst>
@@ -1530,13 +2216,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1573,12 +2260,6 @@
       <name val="Aptos Narrow (Body)"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <vertAlign val="superscript"/>
       <sz val="12"/>
@@ -1606,7 +2287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1648,6 +2329,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2032,10 +2716,28 @@
     <text>relative secondary magnification from system i-prime and i image distances</text>
   </threadedComment>
   <threadedComment ref="L7" dT="2025-12-05T22:28:03.70" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{1D03FF7D-1DF4-0243-8510-3D2521588EE3}">
-    <text>This value of K1 gives a value of K2 equal to zero to within 0.006 or 6 parts in a thousand for sub-aperture corrector A.</text>
+    <text>Estimated value of K1 using m and eta.</text>
   </threadedComment>
-  <threadedComment ref="O7" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{77700BD1-EE46-434E-A663-17F459E3C153}">
+  <threadedComment ref="N7" dT="2025-12-30T17:00:44.79" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{8B232EF6-38AE-8940-9673-E83B3C93B41C}">
+    <text xml:space="preserve">Estimated value of K2 using m for no spherical aberration </text>
+  </threadedComment>
+  <threadedComment ref="R7" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{14660CF1-6C30-3C48-AECC-3895F8B1520C}">
+    <text xml:space="preserve">Wavefront Peak-to-valley error at diffraction focus for astigmatism (telescope-optics.net Eqn.  84.2 Sec. 8.2.2) using as built K1 and K2 from blueprints. Angles are in multiples of 1/3 of the way along the radius of an Andor Marana 2048 sCMOS 11-micron pixel camera. </text>
+  </threadedComment>
+  <threadedComment ref="S7" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{EA2FF422-D5E7-A544-BFFA-D745CCAE8021}">
     <text/>
+  </threadedComment>
+  <threadedComment ref="T7" dT="2025-12-05T19:04:58.22" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{0D1CF9BB-F572-C64C-A7BB-3246AECD9042}">
+    <text/>
+  </threadedComment>
+  <threadedComment ref="U7" dT="2025-12-30T00:18:39.75" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{85E3B126-43D6-094E-B8BE-A27C4989E2BE}">
+    <text xml:space="preserve">Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </text>
+  </threadedComment>
+  <threadedComment ref="V7" dT="2025-12-30T00:18:39.75" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{9D1DBCD1-66F9-FC43-A270-B8AA33D3D9BA}">
+    <text xml:space="preserve">Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </text>
+  </threadedComment>
+  <threadedComment ref="W7" dT="2025-12-30T00:18:39.75" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{599CDE9C-DE6D-D24E-B887-9F3C4EE18425}">
+    <text xml:space="preserve">Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2052,19 +2754,22 @@
     <text>relative secondary magnification from system i-prime and i image distances</text>
   </threadedComment>
   <threadedComment ref="L6" dT="2025-12-29T23:54:44.48" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{AF069C37-F58D-684D-8E91-715472D1A0AE}">
-    <text>3.75 mm from axis</text>
+    <text>3.75 mm from axis or one=third of the way along as diagonal of a 2048 array of 11-micron pixels.</text>
   </threadedComment>
   <threadedComment ref="M6" dT="2025-12-29T23:54:07.92" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{767354F5-E9AD-0F4F-9D04-3FEB0C137ED5}">
-    <text>5mm from axis</text>
+    <text>5mm from axis which corresponds to this odd choice of angular distance.</text>
   </threadedComment>
   <threadedComment ref="N6" dT="2025-12-30T00:18:39.75" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{6F7B81E5-8AE8-C64B-B1AA-14BF9FC662C3}">
-    <text xml:space="preserve">Wavefront Peak-to-valley Seidel astigmatism error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </text>
+    <text xml:space="preserve">Wavefront Peak-to-valley Seidel astigmatism error at diffraction focus (Eqn. 84.2, Sec. 8.2.2, telescope-optics.net) </text>
   </threadedComment>
   <threadedComment ref="P6" dT="2025-12-30T00:18:39.75" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{309DCF61-2995-7244-A9C7-2DF5015E4B07}">
     <text xml:space="preserve">Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </text>
   </threadedComment>
   <threadedComment ref="Q6" dT="2025-12-30T00:18:39.75" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{AB926917-A76F-2945-BA48-156C98E1CFC2}">
-    <text xml:space="preserve">Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </text>
+    <text xml:space="preserve">Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, Sec. 8.2.2, telescope-optics.net) </text>
+  </threadedComment>
+  <threadedComment ref="R6" dT="2025-12-30T16:30:07.11" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{C0E4DB1A-D192-0445-96D7-2F595BF55620}">
+    <text>Peak-to-Valley Spherical aberration wavefront error at diffraction best focus (Eqn. 81 Sec. 8.2.1 telescope-optics.net)</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2944,15 +3649,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BF685D-8724-5246-AEF2-3915C8A371E5}">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:U7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -3037,13 +3743,40 @@
         <v>51</v>
       </c>
       <c r="B2" s="1">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C2" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="D2" s="1">
-        <v>-30400</v>
+        <v>-30557.78</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-6502.4849999999997</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6502.4849999999997</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2768.92</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3073,12 +3806,18 @@
       <c r="D4" s="1">
         <v>-6060.69</v>
       </c>
+      <c r="E4" s="1">
+        <v>-1.637</v>
+      </c>
       <c r="F4" s="1">
         <v>-1735.13</v>
       </c>
       <c r="G4" s="1">
         <v>-6060.69</v>
       </c>
+      <c r="H4" s="1">
+        <v>-35.781999999999996</v>
+      </c>
       <c r="I4" s="1">
         <v>1802.85</v>
       </c>
@@ -3107,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="11" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>58</v>
       </c>
@@ -3142,37 +3881,40 @@
         <v>35</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -3183,9 +3925,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <f>D4/2</f>
@@ -3237,6 +3979,90 @@
       <c r="N9">
         <f>-1*(((H9+1)/(H9-1))^2)-2*H9*(H9+1)/((H9-I9)*(H9-1)^3)</f>
         <v>-33.527359469746898</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3.504</v>
+      </c>
+      <c r="P9" s="1">
+        <v>7.008</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>10.51</v>
+      </c>
+      <c r="R9" s="9">
+        <f>(-1*($H$9^2+$I$9)*((O9*0.0175/60)*$B$4)^2)/(8*(1+$I$9)*$H$9*$B$4*$C$4)*1000000</f>
+        <v>-65.150736710657966</v>
+      </c>
+      <c r="S9" s="9">
+        <f>(-1*($H$9^2+$I$9)*((P9*0.0175/60)*$B$4)^2)/(8*(1+$I$9)*$H$9*$B$4*$C$4)*1000000</f>
+        <v>-260.60294684263187</v>
+      </c>
+      <c r="T9" s="9">
+        <f>(-1*($H$9^2+$I$9)*((Q9*0.0175/60)*$B$4)^2)/(8*(1+$I$9)*$H$9*$B$4*$C$4)*1000000</f>
+        <v>-586.13353265975127</v>
+      </c>
+      <c r="U9" s="9">
+        <f>(O9*0.0175/60)*$B$4/(48*$C$4^2)*1000000</f>
+        <v>1713.6864062500003</v>
+      </c>
+      <c r="V9" s="9">
+        <f>(P9*0.0175/60)*$B$4/(48*$C$4^2)*1000000</f>
+        <v>3427.3728125000007</v>
+      </c>
+      <c r="W9" s="9">
+        <f>(Q9*0.0175/60)*$B$4/(48*$C$4^2)*1000000</f>
+        <v>5140.0810872395841</v>
+      </c>
+      <c r="X9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="R10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="6">
+        <f>R9/SQRT(24)</f>
+        <v>-13.298838442293679</v>
+      </c>
+      <c r="S11" s="6">
+        <f>S9/SQRT(24)</f>
+        <v>-53.195353769174716</v>
+      </c>
+      <c r="T11" s="6">
+        <f>T9/SQRT(24)</f>
+        <v>-119.64400634594415</v>
+      </c>
+      <c r="U11" s="6">
+        <f>U9/32</f>
+        <v>53.552700195312511</v>
+      </c>
+      <c r="V11" s="6">
+        <f>V9/32</f>
+        <v>107.10540039062502</v>
+      </c>
+      <c r="W11" s="6">
+        <f>W9/32</f>
+        <v>160.627533976237</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +4075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB632B28-9AAC-8446-BDC4-4F6BF2F6CAFD}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -3263,7 +4089,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -3340,7 +4166,7 @@
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>250</v>
@@ -3387,7 +4213,7 @@
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>250</v>
@@ -3447,30 +4273,30 @@
         <v>35</v>
       </c>
       <c r="L6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="P6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="Q6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1">
         <f>D2/2</f>
@@ -3534,14 +4360,15 @@
         <f>(M7*0.0175/60)*B2/(48*C2^2)*1000000</f>
         <v>195.97071923317927</v>
       </c>
-      <c r="R7" s="9">
-        <f>((E2+1-1*(H2+(1-2*J7/K7)^2)*K7^4/J7^3)*B2)/(2048*C2^3)*1000000</f>
-        <v>-0.27520575172112816</v>
-      </c>
+      <c r="R7" s="15">
+        <f>((E2+1-1*(H2+(1-2*J7/K7)^2)*K7^4/J7^3)*B2)/(2048*D7^3)*1000000</f>
+        <v>5.3099659238698145</v>
+      </c>
+      <c r="S7" s="15"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
